--- a/istanze.xlsx
+++ b/istanze.xlsx
@@ -130,11 +130,13 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -507,8 +509,8 @@
   <dimension ref="A1:L1024"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2452,14 +2454,14 @@
         <v>55</v>
       </c>
       <c r="C65" s="1">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="D65" s="1">
         <v>5</v>
       </c>
       <c r="E65" s="1">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="F65" s="1">
         <v>3</v>
